--- a/data/Marina_ciclo2.xlsx
+++ b/data/Marina_ciclo2.xlsx
@@ -1,42 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merii\Desktop\onering\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380B728-0B33-420F-A9C2-44B9F355E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Flujo</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +75,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,85 +400,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.09999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" s="3" t="n">
-        <v>45359</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.24999999999999</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B2">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B3">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B4">
+        <v>36.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B5">
+        <v>36.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B6">
+        <v>36.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B7">
+        <v>36.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B8">
+        <v>36.35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B10">
+        <v>36.35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B11">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B12">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B13">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B15">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B16">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B17">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B18">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B19">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B20">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B21">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B22">
+        <v>36.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B23">
+        <v>36.299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/Marina_ciclo2.xlsx
+++ b/data/Marina_ciclo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merii\Desktop\onering\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380B728-0B33-420F-A9C2-44B9F355E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABE2E3-3374-4BD2-A953-594EBB5D53E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -93,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,195 +432,252 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45321</v>
-      </c>
-      <c r="B2">
-        <v>36.35</v>
+        <v>45314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B3">
-        <v>36.200000000000003</v>
+        <v>45315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B4">
-        <v>36.4</v>
+        <v>45316</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45324</v>
-      </c>
-      <c r="B5">
-        <v>36.25</v>
+        <v>45317</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B6">
-        <v>36.25</v>
+        <v>45318</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>45326</v>
-      </c>
-      <c r="B7">
-        <v>36.25</v>
+        <v>45319</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45327</v>
-      </c>
-      <c r="B8">
-        <v>36.35</v>
-      </c>
+        <v>45320</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45328</v>
+        <v>45321</v>
       </c>
       <c r="B9">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>36.35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45329</v>
+        <v>45322</v>
       </c>
       <c r="B10">
-        <v>36.35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45330</v>
+        <v>45323</v>
       </c>
       <c r="B11">
-        <v>36.5</v>
+        <v>36.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="B12">
-        <v>36.700000000000003</v>
+        <v>36.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45332</v>
+        <v>45325</v>
       </c>
       <c r="B13">
-        <v>36.549999999999997</v>
+        <v>36.25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45333</v>
+        <v>45326</v>
+      </c>
+      <c r="B14">
+        <v>36.25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45334</v>
+        <v>45327</v>
       </c>
       <c r="B15">
-        <v>36.4</v>
+        <v>36.35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B16">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B17">
+        <v>36.35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B18">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B19">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B20">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B22">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>45335</v>
       </c>
-      <c r="B16">
+      <c r="B23">
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>45336</v>
       </c>
-      <c r="B17">
+      <c r="B24">
         <v>36.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>45337</v>
       </c>
-      <c r="B18">
+      <c r="B25">
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>45338</v>
       </c>
-      <c r="B19">
+      <c r="B26">
         <v>36.549999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>45339</v>
       </c>
-      <c r="B20">
+      <c r="B27">
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>45340</v>
       </c>
-      <c r="B21">
+      <c r="B28">
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>45341</v>
       </c>
-      <c r="B22">
+      <c r="B29">
         <v>36.65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>45342</v>
       </c>
-      <c r="B23">
+      <c r="B30">
         <v>36.299999999999997</v>
       </c>
     </row>
